--- a/Protocol poverki/Testiruem/Копия_Термометр_стеклянный_(2).xlsx
+++ b/Protocol poverki/Testiruem/Копия_Термометр_стеклянный_(2).xlsx
@@ -1289,11 +1289,7 @@
       <c r="AI4" s="108" t="n"/>
       <c r="AJ4" s="108" t="n"/>
       <c r="AK4" s="109" t="n"/>
-      <c r="AL4" s="51" t="inlineStr">
-        <is>
-          <t>{{DEVICE_TYPE}}</t>
-        </is>
-      </c>
+      <c r="AL4" s="51" t="inlineStr"/>
       <c r="AM4" s="36" t="n"/>
       <c r="AN4" s="36" t="n"/>
       <c r="AO4" s="36" t="n"/>
@@ -1367,11 +1363,7 @@
       <c r="AI5" s="57" t="n"/>
       <c r="AJ5" s="57" t="n"/>
       <c r="AK5" s="58" t="n"/>
-      <c r="AL5" s="51" t="inlineStr">
-        <is>
-          <t>{{SERIAL_NUMBER}}</t>
-        </is>
-      </c>
+      <c r="AL5" s="51" t="inlineStr"/>
       <c r="AM5" s="36" t="n"/>
       <c r="AN5" s="36" t="n"/>
       <c r="AO5" s="36" t="n"/>
@@ -1445,11 +1437,7 @@
       <c r="AI6" s="57" t="n"/>
       <c r="AJ6" s="57" t="n"/>
       <c r="AK6" s="58" t="n"/>
-      <c r="AL6" s="51" t="inlineStr">
-        <is>
-          <t>{{MANUFACTURE_YEAR}}</t>
-        </is>
-      </c>
+      <c r="AL6" s="51" t="inlineStr"/>
       <c r="AM6" s="36" t="n"/>
       <c r="AN6" s="36" t="n"/>
       <c r="AO6" s="36" t="n"/>
@@ -1601,11 +1589,7 @@
       <c r="AI8" s="57" t="n"/>
       <c r="AJ8" s="57" t="n"/>
       <c r="AK8" s="58" t="n"/>
-      <c r="AL8" s="51" t="inlineStr">
-        <is>
-          <t>{{INTERVAL}}</t>
-        </is>
-      </c>
+      <c r="AL8" s="51" t="inlineStr"/>
       <c r="AM8" s="36" t="n"/>
       <c r="AN8" s="36" t="n"/>
       <c r="AO8" s="36" t="n"/>
@@ -1679,11 +1663,7 @@
       <c r="AI9" s="57" t="n"/>
       <c r="AJ9" s="57" t="n"/>
       <c r="AK9" s="58" t="n"/>
-      <c r="AL9" s="51" t="inlineStr">
-        <is>
-          <t>{{LAST_CALIBRATION}}</t>
-        </is>
-      </c>
+      <c r="AL9" s="51" t="inlineStr"/>
       <c r="AM9" s="36" t="n"/>
       <c r="AN9" s="36" t="n"/>
       <c r="AO9" s="36" t="n"/>
@@ -1757,11 +1737,7 @@
       <c r="AI10" s="57" t="n"/>
       <c r="AJ10" s="57" t="n"/>
       <c r="AK10" s="58" t="n"/>
-      <c r="AL10" s="51" t="inlineStr">
-        <is>
-          <t>{{MEASUREMENT_LIMITS}}</t>
-        </is>
-      </c>
+      <c r="AL10" s="51" t="inlineStr"/>
       <c r="AM10" s="36" t="n"/>
       <c r="AN10" s="36" t="n"/>
       <c r="AO10" s="36" t="n"/>
@@ -1835,11 +1811,7 @@
       <c r="AI11" s="57" t="n"/>
       <c r="AJ11" s="57" t="n"/>
       <c r="AK11" s="58" t="n"/>
-      <c r="AL11" s="51" t="inlineStr">
-        <is>
-          <t>{{DIVISION_PRICE}}</t>
-        </is>
-      </c>
+      <c r="AL11" s="51" t="inlineStr"/>
       <c r="AM11" s="36" t="n"/>
       <c r="AN11" s="36" t="n"/>
       <c r="AO11" s="36" t="n"/>
@@ -1966,11 +1938,7 @@
       <c r="AW13" s="77" t="n"/>
       <c r="AX13" s="77" t="n"/>
       <c r="AY13" s="78" t="n"/>
-      <c r="AZ13" s="93" t="inlineStr">
-        <is>
-          <t>{{WORKSHOP}}</t>
-        </is>
-      </c>
+      <c r="AZ13" s="93" t="inlineStr"/>
       <c r="BA13" s="50" t="n"/>
       <c r="BB13" s="50" t="n"/>
       <c r="BC13" s="50" t="n"/>
@@ -2253,11 +2221,7 @@
       <c r="AI17" s="108" t="n"/>
       <c r="AJ17" s="108" t="n"/>
       <c r="AK17" s="109" t="n"/>
-      <c r="AL17" s="49" t="inlineStr">
-        <is>
-          <t>{{AIR_TEMPERATURE}}</t>
-        </is>
-      </c>
+      <c r="AL17" s="49" t="inlineStr"/>
       <c r="AM17" s="50" t="n"/>
       <c r="AN17" s="50" t="n"/>
       <c r="AO17" s="50" t="n"/>
@@ -2714,11 +2678,7 @@
       <c r="AJ23" s="30" t="n"/>
       <c r="AK23" s="30" t="n"/>
       <c r="AL23" s="30" t="n"/>
-      <c r="AM23" s="35" t="inlineStr">
-        <is>
-          <t>{{EXTERNAL_INSPECTION}}</t>
-        </is>
-      </c>
+      <c r="AM23" s="35" t="inlineStr"/>
       <c r="AN23" s="36" t="n"/>
       <c r="AO23" s="36" t="n"/>
       <c r="AP23" s="36" t="n"/>
@@ -3138,9 +3098,7 @@
       <c r="BP28" s="66" t="n"/>
     </row>
     <row r="29" ht="21" customFormat="1" customHeight="1" s="3">
-      <c r="A29" s="38" t="n">
-        <v>5</v>
-      </c>
+      <c r="A29" s="38" t="inlineStr"/>
       <c r="B29" s="39" t="n"/>
       <c r="C29" s="39" t="n"/>
       <c r="D29" s="39" t="n"/>
@@ -3150,9 +3108,7 @@
       <c r="H29" s="39" t="n"/>
       <c r="I29" s="39" t="n"/>
       <c r="J29" s="40" t="n"/>
-      <c r="K29" s="42" t="n">
-        <v>7</v>
-      </c>
+      <c r="K29" s="42" t="n"/>
       <c r="L29" s="39" t="n"/>
       <c r="M29" s="39" t="n"/>
       <c r="N29" s="39" t="n"/>
@@ -3481,11 +3437,7 @@
       <c r="BE33" s="53" t="n"/>
       <c r="BF33" s="53" t="n"/>
       <c r="BG33" s="54" t="n"/>
-      <c r="BH33" s="60" t="inlineStr">
-        <is>
-          <t>{{MEASUREMENTS_END}}</t>
-        </is>
-      </c>
+      <c r="BH33" s="60" t="inlineStr"/>
       <c r="BI33" s="53" t="n"/>
       <c r="BJ33" s="53" t="n"/>
       <c r="BK33" s="53" t="n"/>
@@ -3542,11 +3494,7 @@
       <c r="AJ34" s="44" t="n"/>
       <c r="AK34" s="44" t="n"/>
       <c r="AL34" s="44" t="n"/>
-      <c r="AM34" s="35" t="inlineStr">
-        <is>
-          <t>{{ASSESSMENT}}</t>
-        </is>
-      </c>
+      <c r="AM34" s="35" t="inlineStr"/>
       <c r="AN34" s="36" t="n"/>
       <c r="AO34" s="36" t="n"/>
       <c r="AP34" s="36" t="n"/>
@@ -3590,11 +3538,7 @@
           <t xml:space="preserve">Термометр </t>
         </is>
       </c>
-      <c r="J36" s="102" t="inlineStr">
-        <is>
-          <t>{{CONCLUSION}}</t>
-        </is>
-      </c>
+      <c r="J36" s="102" t="inlineStr"/>
       <c r="K36" s="103" t="n"/>
       <c r="L36" s="103" t="n"/>
       <c r="M36" s="103" t="n"/>
@@ -3691,11 +3635,7 @@
       <c r="AH38" s="21" t="n"/>
       <c r="AI38" s="21" t="n"/>
       <c r="AJ38" s="21" t="n"/>
-      <c r="AK38" s="118" t="inlineStr">
-        <is>
-          <t>{{METROLOGIST}}</t>
-        </is>
-      </c>
+      <c r="AK38" s="118" t="inlineStr"/>
       <c r="AL38" s="103" t="n"/>
       <c r="AM38" s="103" t="n"/>
       <c r="AN38" s="103" t="n"/>
@@ -3871,7 +3811,7 @@
       </c>
       <c r="V41" s="92" t="inlineStr">
         <is>
-          <t>{{DATE}}</t>
+          <t>05.08.2025</t>
         </is>
       </c>
       <c r="W41" s="73" t="n"/>
@@ -3892,6 +3832,10 @@
     </row>
     <row r="43" ht="15" customFormat="1" customHeight="1" s="15"/>
     <row r="44" ht="15" customFormat="1" customHeight="1" s="15"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
     <row r="49" ht="15.75" customHeight="1" s="119">
       <c r="A49" s="33" t="n"/>
     </row>
@@ -3955,6 +3899,7 @@
       <c r="BP51" s="105" t="n"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A2E2"/>
   <mergeCells count="124">
     <mergeCell ref="AD32:AJ32"/>
     <mergeCell ref="A20:BP20"/>
